--- a/kepco-web/src/main/resources/template/template_meter_value.xlsx
+++ b/kepco-web/src/main/resources/template/template_meter_value.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eWSN\ewsnapp\ewsn-app\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LWM2M\kepco-lwm2m-5.0\kepco-web\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>${result.meter_id}</t>
   </si>
@@ -103,9 +103,6 @@
     <t>${result.meter_value}</t>
   </si>
   <si>
-    <t>sect_meter_value</t>
-  </si>
-  <si>
     <t>${result.sect_meter_value}</t>
   </si>
   <si>
@@ -116,6 +113,33 @@
   </si>
   <si>
     <t>검침 정보</t>
+  </si>
+  <si>
+    <t>meter_serial</t>
+  </si>
+  <si>
+    <t>${result.parent_branch_nm}</t>
+  </si>
+  <si>
+    <t>parent_branch_nm</t>
+  </si>
+  <si>
+    <t>branch_nm</t>
+  </si>
+  <si>
+    <t>${result.branch_nm}</t>
+  </si>
+  <si>
+    <t>meter_type</t>
+  </si>
+  <si>
+    <t>${result.meter_type}</t>
+  </si>
+  <si>
+    <t>device_serial</t>
+  </si>
+  <si>
+    <t>${result.device_serial}</t>
   </si>
 </sst>
 </file>
@@ -573,17 +597,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="247" width="9" style="1"/>
+    <col min="1" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="11" customWidth="1"/>
+    <col min="5" max="9" width="20.77734375" style="1" customWidth="1"/>
+    <col min="10" max="247" width="9" style="1"/>
     <col min="248" max="248" width="18.6640625" style="1" customWidth="1"/>
     <col min="249" max="249" width="14.6640625" style="1" customWidth="1"/>
     <col min="250" max="250" width="21.21875" style="1" customWidth="1"/>
@@ -902,15 +928,15 @@
     <col min="16377" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1">
+    <row r="1" spans="1:9" ht="28.8" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="10.199999999999999" customHeight="1"/>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:9" ht="10.199999999999999" customHeight="1"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -918,16 +944,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -935,13 +973,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kepco-web/src/main/resources/template/template_meter_value.xlsx
+++ b/kepco-web/src/main/resources/template/template_meter_value.xlsx
@@ -103,9 +103,6 @@
     <t>${result.meter_value}</t>
   </si>
   <si>
-    <t>${result.sect_meter_value}</t>
-  </si>
-  <si>
     <t>reg_dt</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>${result.device_serial}</t>
+  </si>
+  <si>
+    <t>${result.meter_serial}</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -930,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -944,25 +944,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1">
@@ -973,25 +973,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
